--- a/customer_misbehavior.xlsx
+++ b/customer_misbehavior.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holger\Dropbox\XXX Paper\3 - Inaktiv\Customer misbehavior\Customer misbehavior, ED und burnout\2 - MASEM\Analysen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holger\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4FC61-ED2C-4BBD-BAA6-434280C3E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FB133-0277-44E2-99E1-C1B4B761A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="study-data" sheetId="1" r:id="rId1"/>
+    <sheet name="study_data" sheetId="1" r:id="rId1"/>
     <sheet name="es_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4349,7 +4349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DBBEC2-4295-4311-A4FF-46EF3C1334C5}">
   <dimension ref="A1:G1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/customer_misbehavior.xlsx
+++ b/customer_misbehavior.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holger\Dropbox\XXX Paper\3 - Inaktiv\Customer misbehavior\Customer misbehavior, ED und burnout\2 - MASEM\Analysen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holger\Dropbox\Science Themenfelder\Meta analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C2EF98-4F95-4DA6-A0AC-9C35430E1DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2F2253-57A7-4103-8CF3-C611E2DBFE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study_data" sheetId="1" r:id="rId1"/>
     <sheet name="es_data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">es_data!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -26,7 +29,7 @@
     <author>Holger</author>
   </authors>
   <commentList>
-    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{56096CC0-A572-48CC-81D0-B5B6FABA7E3C}">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{56096CC0-A572-48CC-81D0-B5B6FABA7E3C}">
       <text>
         <r>
           <rPr>
@@ -2336,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2347,18 +2350,18 @@
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="5" max="5" width="23.90625" customWidth="1"/>
     <col min="6" max="6" width="54.54296875" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="5"/>
-    <col min="10" max="10" width="23.6328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.81640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" style="5" customWidth="1"/>
-    <col min="13" max="17" width="8.7265625" style="5"/>
-    <col min="19" max="19" width="46.6328125" customWidth="1"/>
-    <col min="20" max="20" width="27" customWidth="1"/>
-    <col min="21" max="21" width="19.90625" customWidth="1"/>
-    <col min="24" max="24" width="38.7265625" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="5"/>
+    <col min="9" max="9" width="23.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="5" customWidth="1"/>
+    <col min="12" max="16" width="8.7265625" style="5"/>
+    <col min="18" max="18" width="46.6328125" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="19.90625" customWidth="1"/>
+    <col min="23" max="23" width="38.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>275</v>
       </c>
@@ -2377,59 +2380,59 @@
       <c r="F1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I1" s="4" t="s">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>307</v>
+        <v>4</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2448,56 +2451,56 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5">
+      <c r="H2" s="5">
         <v>196</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="L2" s="5">
+        <v>32.200000000000003</v>
+      </c>
       <c r="M2" s="5">
-        <v>32.200000000000003</v>
+        <v>39.24</v>
       </c>
       <c r="N2" s="5">
-        <v>39.24</v>
-      </c>
-      <c r="O2" s="5">
         <v>11.6</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2516,56 +2519,56 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5">
+      <c r="H3" s="5">
         <v>224</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="J3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="L3" s="5">
+        <v>37</v>
+      </c>
       <c r="M3" s="5">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="5">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="O3" s="5">
-        <v>4.97</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" t="s">
-        <v>25</v>
-      </c>
       <c r="W3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2584,56 +2587,56 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="H4" s="5">
         <v>138</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="L4" s="5">
+        <v>29</v>
+      </c>
       <c r="M4" s="5">
-        <v>29</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="N4" s="5">
-        <v>37.020000000000003</v>
-      </c>
-      <c r="O4" s="5">
         <v>4.18</v>
       </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="V4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2652,56 +2655,56 @@
       <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="5">
+      <c r="H5" s="5">
         <v>108</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="L5" s="5">
+        <v>81</v>
+      </c>
       <c r="M5" s="5">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="N5" s="5">
-        <v>40</v>
-      </c>
-      <c r="O5" s="5">
         <v>11</v>
       </c>
+      <c r="O5" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="P5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2717,56 +2720,56 @@
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="5">
+      <c r="H6" s="5">
         <v>101</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="J6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="L6" s="5">
+        <v>36</v>
+      </c>
       <c r="M6" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="5">
-        <v>35</v>
-      </c>
-      <c r="O6" s="5">
         <v>5</v>
       </c>
+      <c r="O6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="P6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2785,56 +2788,56 @@
       <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="5">
+      <c r="H7" s="5">
         <v>170</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="L7" s="5">
+        <v>56</v>
+      </c>
       <c r="M7" s="5">
-        <v>56</v>
-      </c>
-      <c r="N7" s="5">
         <v>40.799999999999997</v>
       </c>
+      <c r="O7" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2853,50 +2856,50 @@
       <c r="F8" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="5">
+      <c r="H8" s="5">
         <v>4130</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="5" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="L8" s="5">
+        <v>69.510000000000005</v>
+      </c>
       <c r="M8" s="5">
-        <v>69.510000000000005</v>
-      </c>
-      <c r="N8" s="5">
         <v>37.33</v>
       </c>
+      <c r="O8" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="P8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" t="s">
         <v>82</v>
       </c>
+      <c r="U8" t="s">
+        <v>0</v>
+      </c>
       <c r="V8" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2912,53 +2915,53 @@
       <c r="F9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="5">
+      <c r="H9" s="5">
         <v>89</v>
       </c>
+      <c r="I9" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="J9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="L9" s="5">
+        <v>75.599999999999994</v>
+      </c>
       <c r="M9" s="5">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="N9" s="5">
         <v>21.48</v>
       </c>
+      <c r="O9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="V9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>37</v>
-      </c>
-      <c r="X9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2977,56 +2980,56 @@
       <c r="F10" t="s">
         <v>94</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="5">
+      <c r="H10" s="5">
         <v>187</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="L10" s="5">
+        <v>70.5</v>
+      </c>
       <c r="M10" s="5">
-        <v>70.5</v>
+        <v>30</v>
       </c>
       <c r="N10" s="5">
-        <v>30</v>
-      </c>
-      <c r="O10" s="5">
         <v>2</v>
       </c>
+      <c r="O10" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="P10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q10" t="s">
+        <v>99</v>
+      </c>
       <c r="R10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U10" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="W10" t="s">
-        <v>103</v>
-      </c>
-      <c r="X10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -3045,56 +3048,56 @@
       <c r="F11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="5">
+      <c r="H11" s="5">
         <v>126</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="J11" s="5" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="L11" s="5">
+        <v>83.3</v>
+      </c>
       <c r="M11" s="5">
-        <v>83.3</v>
+        <v>28</v>
       </c>
       <c r="N11" s="5">
-        <v>28</v>
-      </c>
-      <c r="O11" s="5">
         <v>2.8</v>
       </c>
+      <c r="O11" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="P11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q11" t="s">
+        <v>107</v>
+      </c>
       <c r="R11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U11" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s">
-        <v>37</v>
-      </c>
-      <c r="X11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -3113,56 +3116,56 @@
       <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="5">
+      <c r="H12" s="5">
         <v>516</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="J12" s="5" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="M12" s="5">
+        <v>28</v>
+      </c>
       <c r="N12" s="5">
-        <v>28</v>
-      </c>
-      <c r="O12" s="5">
         <v>3</v>
       </c>
+      <c r="O12" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="P12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
       <c r="R12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U12" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s">
-        <v>37</v>
-      </c>
-      <c r="X12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -3181,53 +3184,53 @@
       <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="5">
+      <c r="H13" s="5">
         <v>422</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="L13" s="5">
+        <v>71.5</v>
+      </c>
       <c r="M13" s="5">
-        <v>71.5</v>
+        <v>28</v>
       </c>
       <c r="N13" s="5">
-        <v>28</v>
-      </c>
-      <c r="O13" s="5">
         <v>6</v>
       </c>
+      <c r="O13" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="P13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q13" t="s">
+        <v>121</v>
+      </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T13" t="s">
-        <v>123</v>
-      </c>
-      <c r="U13" t="s">
         <v>124</v>
       </c>
+      <c r="V13" t="s">
+        <v>37</v>
+      </c>
       <c r="W13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3246,56 +3249,56 @@
       <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="5">
+      <c r="H14" s="5">
         <v>156</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="J14" s="5" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="L14" s="5">
+        <v>84</v>
+      </c>
       <c r="M14" s="5">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="N14" s="5">
-        <v>23</v>
-      </c>
-      <c r="O14" s="5">
         <v>7</v>
       </c>
+      <c r="O14" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="P14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q14" t="s">
+        <v>128</v>
+      </c>
       <c r="R14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U14" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s">
-        <v>37</v>
-      </c>
-      <c r="X14" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -3314,56 +3317,56 @@
       <c r="F15" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="5">
+      <c r="H15" s="5">
         <v>359</v>
       </c>
+      <c r="I15" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="J15" s="5" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="L15" s="5">
+        <v>86.9</v>
+      </c>
       <c r="M15" s="5">
-        <v>86.9</v>
+        <v>37.17</v>
       </c>
       <c r="N15" s="5">
-        <v>37.17</v>
-      </c>
-      <c r="O15" s="5">
         <v>7</v>
       </c>
+      <c r="O15" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="P15" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q15" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q15" t="s">
+        <v>138</v>
+      </c>
       <c r="R15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U15" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="V15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -3382,59 +3385,59 @@
       <c r="F16" t="s">
         <v>144</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="5">
+      <c r="H16" s="5">
         <v>438</v>
       </c>
+      <c r="I16" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="J16" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="L16" s="5">
+        <v>62</v>
+      </c>
       <c r="M16" s="5">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="N16" s="5">
-        <v>24</v>
-      </c>
-      <c r="O16" s="5">
         <v>2</v>
       </c>
+      <c r="O16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q16" t="s">
+        <v>149</v>
+      </c>
       <c r="R16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U16" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W16" t="s">
-        <v>26</v>
-      </c>
-      <c r="X16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -3450,56 +3453,56 @@
       <c r="F17" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="5">
+      <c r="H17" s="5">
         <v>309</v>
       </c>
+      <c r="I17" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="J17" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="5" t="s">
         <v>157</v>
       </c>
+      <c r="L17" s="5">
+        <v>89.9</v>
+      </c>
       <c r="M17" s="5">
-        <v>89.9</v>
+        <v>34.17</v>
       </c>
       <c r="N17" s="5">
-        <v>34.17</v>
-      </c>
-      <c r="O17" s="5">
         <v>8.19</v>
       </c>
+      <c r="O17" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="P17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q17" t="s">
+        <v>159</v>
+      </c>
       <c r="R17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U17" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="V17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -3518,53 +3521,53 @@
       <c r="F18" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="5">
+      <c r="H18" s="5">
         <v>204</v>
       </c>
+      <c r="I18" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="J18" s="5" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="L18" s="5">
+        <v>67</v>
+      </c>
       <c r="M18" s="5">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N18" s="5">
-        <v>26</v>
-      </c>
-      <c r="O18" s="5">
         <v>4</v>
       </c>
+      <c r="O18" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="P18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q18" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q18" t="s">
+        <v>169</v>
+      </c>
       <c r="R18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S18" t="s">
-        <v>170</v>
-      </c>
-      <c r="T18" t="s">
         <v>171</v>
       </c>
+      <c r="U18" t="s">
+        <v>0</v>
+      </c>
       <c r="V18" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s">
-        <v>37</v>
-      </c>
-      <c r="X18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -3583,56 +3586,56 @@
       <c r="F19" t="s">
         <v>174</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="5">
+      <c r="H19" s="5">
         <v>434</v>
       </c>
+      <c r="I19" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J19" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="L19" s="5">
+        <v>26</v>
+      </c>
       <c r="M19" s="5">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="N19" s="5">
-        <v>28.1</v>
-      </c>
-      <c r="O19" s="5">
         <v>3.1</v>
       </c>
+      <c r="O19" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="P19" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q19" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q19" t="s">
+        <v>178</v>
+      </c>
       <c r="R19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U19" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="V19" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="W19" t="s">
-        <v>103</v>
-      </c>
-      <c r="X19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -3651,56 +3654,56 @@
       <c r="F20" t="s">
         <v>184</v>
       </c>
-      <c r="I20" s="5">
+      <c r="H20" s="5">
         <v>352</v>
       </c>
+      <c r="I20" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J20" s="5" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="L20" s="5">
+        <v>52</v>
+      </c>
       <c r="M20" s="5">
-        <v>52</v>
+        <v>43.67</v>
       </c>
       <c r="N20" s="5">
-        <v>43.67</v>
-      </c>
-      <c r="O20" s="5">
         <v>19.57</v>
       </c>
+      <c r="O20" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="P20" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>187</v>
       </c>
       <c r="R20" t="s">
         <v>187</v>
       </c>
       <c r="S20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="W20" t="s">
-        <v>103</v>
-      </c>
-      <c r="X20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>190</v>
       </c>
@@ -3719,35 +3722,38 @@
       <c r="F21" t="s">
         <v>192</v>
       </c>
-      <c r="I21" s="5">
+      <c r="H21" s="5">
         <v>179</v>
       </c>
+      <c r="I21" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J21" s="5" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="L21" s="5">
+        <v>66</v>
+      </c>
       <c r="M21" s="5">
-        <v>66</v>
+        <v>38.07</v>
       </c>
       <c r="N21" s="5">
-        <v>38.07</v>
-      </c>
-      <c r="O21" s="5">
         <v>13.81</v>
       </c>
+      <c r="O21" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="P21" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q21" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q21" t="s">
+        <v>187</v>
+      </c>
       <c r="R21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="S21" t="s">
         <v>193</v>
@@ -3756,19 +3762,16 @@
         <v>193</v>
       </c>
       <c r="U21" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="W21" t="s">
-        <v>103</v>
-      </c>
-      <c r="X21" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -3787,56 +3790,56 @@
       <c r="F22" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="5">
+      <c r="H22" s="5">
         <v>118</v>
       </c>
+      <c r="I22" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="J22" s="5" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="L22" s="5">
+        <v>26</v>
+      </c>
       <c r="M22" s="5">
+        <v>33</v>
+      </c>
+      <c r="N22" s="5">
+        <v>8</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>199</v>
+      </c>
+      <c r="R22" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" t="s">
+        <v>201</v>
+      </c>
+      <c r="T22" t="s">
+        <v>202</v>
+      </c>
+      <c r="U22" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="5">
-        <v>33</v>
-      </c>
-      <c r="O22" s="5">
-        <v>8</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" t="s">
-        <v>199</v>
-      </c>
-      <c r="S22" t="s">
-        <v>200</v>
-      </c>
-      <c r="T22" t="s">
-        <v>201</v>
-      </c>
-      <c r="U22" t="s">
-        <v>202</v>
-      </c>
-      <c r="V22" t="s">
-        <v>25</v>
-      </c>
       <c r="W22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -3855,56 +3858,56 @@
       <c r="F23" t="s">
         <v>205</v>
       </c>
-      <c r="I23" s="5">
+      <c r="H23" s="5">
         <v>120</v>
       </c>
+      <c r="I23" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="J23" s="5" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="5" t="s">
         <v>207</v>
       </c>
+      <c r="L23" s="5">
+        <v>84</v>
+      </c>
       <c r="M23" s="5">
-        <v>84</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="N23" s="5">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="O23" s="5">
         <v>5.36</v>
       </c>
+      <c r="O23" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R23" t="s">
+      <c r="Q23" t="s">
         <v>208</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="R23" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="S23" t="s">
+        <v>210</v>
+      </c>
       <c r="T23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U23" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="V23" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="W23" t="s">
-        <v>103</v>
-      </c>
-      <c r="X23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>212</v>
       </c>
@@ -3923,56 +3926,56 @@
       <c r="F24" t="s">
         <v>214</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>215</v>
       </c>
-      <c r="I24" s="5">
+      <c r="H24" s="5">
         <v>310</v>
       </c>
+      <c r="I24" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J24" s="5" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="L24" s="5">
+        <v>43.7</v>
+      </c>
       <c r="M24" s="5">
-        <v>43.7</v>
-      </c>
-      <c r="N24" s="5">
         <v>28.43</v>
       </c>
+      <c r="O24" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="P24" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q24" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q24" t="s">
+        <v>217</v>
+      </c>
       <c r="R24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U24" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="V24" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="W24" t="s">
-        <v>103</v>
-      </c>
-      <c r="X24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -3991,50 +3994,50 @@
       <c r="F25" t="s">
         <v>223</v>
       </c>
-      <c r="I25" s="5">
+      <c r="H25" s="5">
         <v>25</v>
       </c>
+      <c r="I25" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="J25" s="5" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="5">
+      <c r="L25" s="5">
         <v>80</v>
       </c>
+      <c r="O25" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="P25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="Q25" t="s">
+        <v>225</v>
+      </c>
       <c r="R25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U25" t="s">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="W25" t="s">
-        <v>103</v>
-      </c>
-      <c r="X25" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>229</v>
       </c>
@@ -4053,53 +4056,53 @@
       <c r="F26" t="s">
         <v>223</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>215</v>
       </c>
-      <c r="I26" s="5">
+      <c r="H26" s="5">
         <v>39</v>
       </c>
+      <c r="I26" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="J26" s="5" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="5">
+      <c r="L26" s="5">
         <v>28</v>
       </c>
+      <c r="O26" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="P26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q26" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="Q26" t="s">
+        <v>232</v>
+      </c>
       <c r="R26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U26" t="s">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -4118,56 +4121,56 @@
       <c r="F27" t="s">
         <v>238</v>
       </c>
-      <c r="I27" s="5">
+      <c r="H27" s="5">
         <v>161</v>
       </c>
+      <c r="I27" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J27" s="5" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="L27" s="5">
+        <v>62</v>
+      </c>
       <c r="M27" s="5">
-        <v>62</v>
+        <v>36.6</v>
       </c>
       <c r="N27" s="5">
-        <v>36.6</v>
-      </c>
-      <c r="O27" s="5">
         <v>2.2999999999999998</v>
       </c>
+      <c r="O27" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="P27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q27" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q27" t="s">
+        <v>239</v>
+      </c>
       <c r="R27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U27" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="W27" t="s">
-        <v>103</v>
-      </c>
-      <c r="X27" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -4186,56 +4189,56 @@
       <c r="F28" t="s">
         <v>245</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>246</v>
       </c>
-      <c r="I28" s="5">
+      <c r="H28" s="5">
         <v>96</v>
       </c>
+      <c r="I28" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="J28" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K28" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="L28" s="5">
+        <v>56</v>
+      </c>
       <c r="M28" s="5">
-        <v>56</v>
+        <v>29.8</v>
       </c>
       <c r="N28" s="5">
-        <v>29.8</v>
-      </c>
-      <c r="O28" s="5">
         <v>3.1</v>
       </c>
+      <c r="O28" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="P28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q28" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="Q28" t="s">
+        <v>248</v>
+      </c>
       <c r="R28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U28" t="s">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="W28" t="s">
-        <v>103</v>
-      </c>
-      <c r="X28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>252</v>
       </c>
@@ -4254,56 +4257,56 @@
       <c r="F29" t="s">
         <v>254</v>
       </c>
-      <c r="I29" s="5">
+      <c r="H29" s="5">
         <v>265</v>
       </c>
+      <c r="I29" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="J29" s="5" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="K29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="5">
+        <v>57</v>
+      </c>
+      <c r="M29" s="5">
         <v>31</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M29" s="5">
-        <v>57</v>
-      </c>
       <c r="N29" s="5">
-        <v>31</v>
-      </c>
-      <c r="O29" s="5">
         <v>5.58</v>
       </c>
+      <c r="O29" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="P29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q29" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="Q29" t="s">
+        <v>256</v>
+      </c>
       <c r="R29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U29" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="V29" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="W29" t="s">
-        <v>37</v>
-      </c>
-      <c r="X29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>260</v>
       </c>
@@ -4322,56 +4325,56 @@
       <c r="F30" t="s">
         <v>262</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>263</v>
       </c>
-      <c r="I30" s="5">
+      <c r="H30" s="5">
         <v>149</v>
       </c>
+      <c r="I30" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="J30" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="K30" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="L30" s="5">
+        <v>69.099999999999994</v>
+      </c>
       <c r="M30" s="5">
-        <v>69.099999999999994</v>
+        <v>24.43</v>
       </c>
       <c r="N30" s="5">
-        <v>24.43</v>
-      </c>
-      <c r="O30" s="5">
         <v>1.21</v>
       </c>
+      <c r="O30" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="P30" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="Q30" t="s">
+        <v>265</v>
+      </c>
       <c r="R30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U30" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="V30" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="W30" t="s">
-        <v>103</v>
-      </c>
-      <c r="X30" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>269</v>
       </c>
@@ -4390,58 +4393,58 @@
       <c r="F31" t="s">
         <v>271</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>263</v>
       </c>
-      <c r="I31" s="5">
+      <c r="H31" s="5">
         <v>110</v>
       </c>
+      <c r="I31" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="J31" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="K31" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="L31" s="5">
+        <v>52.7</v>
+      </c>
       <c r="M31" s="5">
-        <v>52.7</v>
+        <v>22.94</v>
       </c>
       <c r="N31" s="5">
-        <v>22.94</v>
-      </c>
-      <c r="O31" s="5">
         <v>2.48</v>
       </c>
+      <c r="O31" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="P31" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q31" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="Q31" t="s">
+        <v>272</v>
+      </c>
       <c r="R31" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="S31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U31" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="V31" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="W31" t="s">
-        <v>103</v>
-      </c>
-      <c r="X31" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" xr:uid="{0629FAEC-4C80-41D8-9C14-A107C7017034}"/>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{0629FAEC-4C80-41D8-9C14-A107C7017034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -4452,7 +4455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DBBEC2-4295-4311-A4FF-46EF3C1334C5}">
   <dimension ref="A1:H1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -24605,6 +24608,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{57DBBEC2-4295-4311-A4FF-46EF3C1334C5}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>